--- a/biology/Mycologie/Collybie_beurrée/Collybie_beurrée.xlsx
+++ b/biology/Mycologie/Collybie_beurrée/Collybie_beurrée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Collybie_beurr%C3%A9e</t>
+          <t>Collybie_beurrée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Collybie beurrée, Collybie savonneuse
 La Collybie savonneuse, ou Collybie beurrée (Collybia puis Rhodocollybia butyracea), est une espèce de champignons basidiomycètes. Naguère membre de la famille des Tricholomatacées, cette espèce est maintenant classée dans la famille des Marasmiacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Collybie_beurr%C3%A9e</t>
+          <t>Collybie_beurrée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Basionyme et Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mycologue français Pierre Bulliard décrit l'espèce sous le nom d'Agaricus butyraceus en 1798, sanctionnée par Elias Magnus Fries.
 Les épithètes « beurrée » et « savonneuse »  font référence à la sensation de « toucher gras », notamment au centre (mamelon) du chapeau, qui évoque le beurre ou le savon.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Collybie_beurr%C3%A9e</t>
+          <t>Collybie_beurrée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chapeau : 4 à 6 (voire 9) cm de diamètre, convexe puis étalé, à mamelon obtus et bas, souvent plus foncé (ochracé) souvent discret, parfois absent.  Le chapeau s'incurve parfois ensuite en forme de coupelle. La couleur du chapeau est habituellement brun rouge, à brun gris fuligineux très foncé, avec le centre clair, palissant par l'aréole par temps sec, plus pâle à la marge. Il porte parfois une zone en anneau plus pâle (blanc-crème) entre le centre et la marge. Sa couleur change selon l'âge et l'hygrométrie car c'est un champignon très hygrophane qui fonce avec l'humidité et s'éclaircit quand il fait sec).La cuticule lisse et grasse au toucher est à l'origine de son nom d'espèce ; marge striée par transparence.
 Lames échancrées, serrées et blanches, virant parfois progressivement à crème pâle et rosissant côté chapeau avec l'âge (voir photo ci-contre). Sporée blanchâtre tirant légèrement sur le jaune ou rose pâles.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Collybie_beurr%C3%A9e</t>
+          <t>Collybie_beurrée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette collybie est très commune en climat tempéré, en plaine et en moyenne montagne, essentiellement sous les feuillus, mais peut être trouvée sous les résineux. 
 Elle vient de l'automne au début de l'hiver en région tempérée et toute l'année en région plus chaude.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Collybie_beurr%C3%A9e</t>
+          <t>Collybie_beurrée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un comestible sans intérêt, à la chair flasque et insipide.
 </t>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Collybie_beurr%C3%A9e</t>
+          <t>Collybie_beurrée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,9 +661,11 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De premières analyses génétiques[1] montrent des ADN différents, ce qui laisse penser que la dénomination pourrait en fait couvrir au moins deux espèces proches ou différentes.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De premières analyses génétiques montrent des ADN différents, ce qui laisse penser que la dénomination pourrait en fait couvrir au moins deux espèces proches ou différentes.
 </t>
         </is>
       </c>
@@ -654,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Collybie_beurr%C3%A9e</t>
+          <t>Collybie_beurrée</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,10 +694,12 @@
           <t>Espèces proches et confusions possibles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces proches sont 
-Collybia dryophila, la collybie des chênes, de couleur plus crème[2]
+Collybia dryophila, la collybie des chênes, de couleur plus crème
 Collybia distorta, au pied courbé.
 Il existe également une variété asema de Rhodocollybia butyracea, plus pâle.
 Toutes sont également dépourvues de qualités culinaires.
@@ -689,7 +713,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Collybie_beurr%C3%A9e</t>
+          <t>Collybie_beurrée</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,7 +731,9 @@
           <t>Sources et liens externes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les Champignons, Roger Phillips, éditions Solar,  (ISBN 2-263-00640-0)
 Grand guide encyclopédique des champignons, Jean-Louis Lamaison et Jean-marie Polese, Artémis 1998,  (ISBN 2-84416-005-0)
